--- a/DateBase/orders/International Ever Green_2025-11-24.xlsx
+++ b/DateBase/orders/International Ever Green_2025-11-24.xlsx
@@ -777,6 +777,9 @@
       <c r="C41" t="str">
         <v>431_小米果_undefined_undefined_1bunch</v>
       </c>
+      <c r="F41" t="str">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -838,7 +841,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0551555525106525665555253215158225555105555512551560</v>
+        <v>0551555525106525665555253215158225555105555512551565</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/International Ever Green_2025-11-24.xlsx
+++ b/DateBase/orders/International Ever Green_2025-11-24.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L41"/>
+  <dimension ref="A1:L71"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -781,9 +781,257 @@
         <v>5</v>
       </c>
     </row>
+    <row r="42">
+      <c r="C42" t="str">
+        <v>816_山里红_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F42" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>7</v>
+      </c>
+      <c r="C43" t="str">
+        <v>653_大丽花 黑_undefined_undefined_5stems</v>
+      </c>
+      <c r="F43" t="str">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="C44" t="str">
+        <v>669_大丽花 红_undefined_undefined_5stems</v>
+      </c>
+      <c r="F44" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="C45" t="str">
+        <v>651_大丽花 奶油桃子_undefined_undefined_5stems</v>
+      </c>
+      <c r="F45" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="C46" t="str">
+        <v>314_松虫草花边黑_scabiosa_undefined_1bunch</v>
+      </c>
+      <c r="F46" t="str">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>8</v>
+      </c>
+      <c r="C47" t="str">
+        <v>647_海棠果红_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F47" t="str">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="C48" t="str">
+        <v>647_海棠果红_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F48" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="C49" t="str">
+        <v>418_松虫草白_scabiosa white_undefined_1bunch</v>
+      </c>
+      <c r="F49" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="C50" t="str">
+        <v>512_松虫草粉_scabiosa pink_undefined_1bunch</v>
+      </c>
+      <c r="F50" t="str">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="C51" t="str">
+        <v>419_松虫草红_scabiosa watermelon_undefined_1bunch</v>
+      </c>
+      <c r="F51" t="str">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="C52" t="str">
+        <v>480_蝴蝶洋牡丹红_butterfly  Ranunculus_undefined_1bunch</v>
+      </c>
+      <c r="F52" t="str">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="C53" t="str">
+        <v>586_洋牡丹白_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F53" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="C54" t="str">
+        <v>590_洋牡丹粉_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F54" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="C55" t="str">
+        <v>585_洋牡丹红_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F55" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>9</v>
+      </c>
+      <c r="C56" t="str">
+        <v>462_五针松_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F56" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="C57" t="str">
+        <v>359_蓝梦叶_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F57" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="C58" t="str">
+        <v>411_紫罗兰白_violet white_undefined_1bunch</v>
+      </c>
+      <c r="F58" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="C59" t="str">
+        <v>412_紫罗兰粉_violet pink_undefined_1bunch</v>
+      </c>
+      <c r="F59" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="C60" t="str">
+        <v>506_紫罗兰香槟色_violet champagne_undefined_1bunch</v>
+      </c>
+      <c r="F60" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" xml:space="preserve">
+      <c r="C61" t="str" xml:space="preserve">
+        <v xml:space="preserve">508_风铃花白色_Canterbury Bells 
+white_undefined_1bunch</v>
+      </c>
+      <c r="F61" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="C62" t="str">
+        <v>396_米花 白_rice flower white_undefined_1bunch</v>
+      </c>
+      <c r="F62" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="C63" t="str">
+        <v>387_洋甘菊_Chamomile_undefined_1bunch</v>
+      </c>
+      <c r="F63" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="C64" t="str">
+        <v>769_菟葵绿铃铛_undefined_undefined_undefinedundefined</v>
+      </c>
+      <c r="F64" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="C65" t="str">
+        <v>753_蝴蝶洋牡丹黄_butterfly  Ranunculus_undefined_1bunch</v>
+      </c>
+      <c r="F65" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="C66" t="str">
+        <v>773_格桑花白_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F66" t="str">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" xml:space="preserve">
+      <c r="C67" t="str" xml:space="preserve">
+        <v xml:space="preserve">405_小飞燕浅蓝_ delphinium ballkleid
+dark blue_undefined_1bunch</v>
+      </c>
+      <c r="F67" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="C68" t="str">
+        <v>468_水仙百合_Alstroemeria_undefined_1bunch</v>
+      </c>
+      <c r="F68" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="C69" t="str">
+        <v>578_腊梅粉_wax pink_undefined_1bunch</v>
+      </c>
+      <c r="F69" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="C70" t="str">
+        <v>794_小菊罗西香槟_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F70" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="C71" t="str">
+        <v>794_小菊罗西香槟_undefined_undefined_1bunch</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L41"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L71"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -841,7 +1089,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0551555525106525665555253215158225555105555512551565</v>
+        <v>05515555251065256655552532151582255551055555125515655810157651061261055105151055551015810515100</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/International Ever Green_2025-11-24.xlsx
+++ b/DateBase/orders/International Ever Green_2025-11-24.xlsx
@@ -1028,6 +1028,9 @@
       <c r="C71" t="str">
         <v>794_小菊罗西香槟_undefined_undefined_1bunch</v>
       </c>
+      <c r="F71" t="str">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -1089,7 +1092,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>05515555251065256655552532151582255551055555125515655810157651061261055105151055551015810515100</v>
+        <v>05515555251065256655552532151582255551055555125515655810157651061261055105151055551015810515105</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/International Ever Green_2025-11-24.xlsx
+++ b/DateBase/orders/International Ever Green_2025-11-24.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L71"/>
+  <dimension ref="A1:L91"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1032,9 +1032,175 @@
         <v>5</v>
       </c>
     </row>
+    <row r="72">
+      <c r="C72" t="str">
+        <v>624_多丁白_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F72" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="str">
+        <v>10</v>
+      </c>
+      <c r="C73" t="str">
+        <v>138_卡罗拉_Carola_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F73" t="str">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="C74" t="str">
+        <v>154_莫泊_Moab_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F74" t="str">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="C75" t="str">
+        <v>148_坦尼克_Tineke_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F75" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="C76" t="str">
+        <v>157_流沙_Quicksand_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F76" t="str">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="C77" t="str">
+        <v>137_凯瑟琳_Catherine_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F77" t="str">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="C78" t="str">
+        <v>600_康乃馨复古红_vintage red_undefined_20stems</v>
+      </c>
+      <c r="F78" t="str">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="str">
+        <v>11</v>
+      </c>
+      <c r="C79" t="str">
+        <v>135_甜蜜曼塔_sweet menta_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F79" t="str">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="C80" t="str">
+        <v>157_流沙_Quicksand_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F80" t="str">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="C81" t="str">
+        <v>152_白荔枝_White Ohara_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F81" t="str">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="C82" t="str">
+        <v>203_佛罗伊德_Floyd_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F82" t="str">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="C83" t="str">
+        <v>192_粉荔枝_Pink Ohara_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F83" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="C84" t="str">
+        <v>147_娜欧米_Red Naomi_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F84" t="str">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="C85" t="str">
+        <v>600_康乃馨复古红_vintage red_undefined_20stems</v>
+      </c>
+      <c r="F85" t="str">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="C86" t="str">
+        <v>604_康乃馨粉佳人_pink_undefined_20stems</v>
+      </c>
+      <c r="F86" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="str">
+        <v>12</v>
+      </c>
+      <c r="C87" t="str">
+        <v>192_粉荔枝_Pink Ohara_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F87" t="str">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="C88" t="str">
+        <v>277_草莓杏仁饼_undefined_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F88" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="C89" t="str">
+        <v>221_朱丽叶塔_Julieta_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F89" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="C90" t="str">
+        <v>238_苏菲宝贝_undefined_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F90" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="C91" t="str">
+        <v>244_繁星_undefined_Rosa rugosa Thunb._10stems</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L71"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L91"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -1092,7 +1258,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>05515555251065256655552532151582255551055555125515655810157651061261055105151055551015810515105</v>
+        <v>055155552510652566555525321515822555510555551255156558101576510612610551051510555510158105151051541156111387865775125550</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/International Ever Green_2025-11-24.xlsx
+++ b/DateBase/orders/International Ever Green_2025-11-24.xlsx
@@ -1197,6 +1197,9 @@
       <c r="C91" t="str">
         <v>244_繁星_undefined_Rosa rugosa Thunb._10stems</v>
       </c>
+      <c r="F91" t="str">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -1258,7 +1261,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>055155552510652566555525321515822555510555551255156558101576510612610551051510555510158105151051541156111387865775125550</v>
+        <v>055155552510652566555525321515822555510555551255156558101576510612610551051510555510158105151051541156111387865775125551</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/International Ever Green_2025-11-24.xlsx
+++ b/DateBase/orders/International Ever Green_2025-11-24.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L91"/>
+  <dimension ref="A1:L111"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1198,12 +1198,178 @@
         <v>244_繁星_undefined_Rosa rugosa Thunb._10stems</v>
       </c>
       <c r="F91" t="str">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="C92" t="str">
+        <v>7_翠绿洋桔梗_Dark Green Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F92" t="str">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="C93" t="str">
+        <v>3_波浪白洋桔梗_Wavy White Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F93" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="C94" t="str">
+        <v>12_肉粉洋桔梗_Peach Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F94" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="C95" t="str">
+        <v>9_茶色洋桔梗_Tea Color Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F95" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="str">
+        <v>13</v>
+      </c>
+      <c r="C96" t="str">
+        <v>110_绣球单瓣浅蓝_Hydrangea Light Blue S_Hydrangea L._1stem</v>
+      </c>
+      <c r="F96" t="str">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="C97" t="str">
+        <v>106_绣球单瓣粉_Hydrangea Pink S_Hydrangea L._1stem</v>
+      </c>
+      <c r="F97" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="C98" t="str">
+        <v>118_绣球老绿_Hydrangea Garden Lace_Hydrangea L._1stem</v>
+      </c>
+      <c r="F98" t="str">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="C99" t="str">
+        <v>322_喷泉草_Grasses Panicum_undefined_1bunch</v>
+      </c>
+      <c r="F99" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="C100" t="str">
+        <v>479_绿灵草_lepidium_undefined_1bunch</v>
+      </c>
+      <c r="F100" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="C101" t="str">
+        <v>9_茶色洋桔梗_Tea Color Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F101" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="C102" t="str">
+        <v>744_永生吊米深红_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F102" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="str">
+        <v>14</v>
+      </c>
+      <c r="C103" t="str">
+        <v>47_拉丝玫红_Spider Dark Pink_Gerbera L._20stems</v>
+      </c>
+      <c r="F103" t="str">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="C104" t="str">
+        <v>71_霜雪mini_Snowy_Gerbera L._20stems</v>
+      </c>
+      <c r="F104" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="C105" t="str">
+        <v>45_拉丝艳粉_Spider pink+_Gerbera L._20stems</v>
+      </c>
+      <c r="F105" t="str">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="C106" t="str">
+        <v>12_肉粉洋桔梗_Peach Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F106" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="str">
         <v>1</v>
+      </c>
+      <c r="C107" t="str">
+        <v>556_马尾松_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F107" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="C108" t="str">
+        <v>592_进口春兰叶_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F108" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="C109" t="str">
+        <v>522_山归来绿_Smilax china_undefined_1bunch</v>
+      </c>
+      <c r="F109" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="C110" t="str">
+        <v>688_山归来橙_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F110" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="C111" t="str">
+        <v>439_九星叶_undefined_undefined_1bunch</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L91"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L111"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -1261,7 +1427,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>055155552510652566555525321515822555510555551255156558101576510612610551051510555510158105151051541156111387865775125551</v>
+        <v>055155552510652566555525321515822555510555551255156558101576510612610551051510555510158105151051541156111387865775125551281055451565551010352.5152020550</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/International Ever Green_2025-11-24.xlsx
+++ b/DateBase/orders/International Ever Green_2025-11-24.xlsx
@@ -1366,6 +1366,9 @@
       <c r="C111" t="str">
         <v>439_九星叶_undefined_undefined_1bunch</v>
       </c>
+      <c r="F111" t="str">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -1427,7 +1430,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>055155552510652566555525321515822555510555551255156558101576510612610551051510555510158105151051541156111387865775125551281055451565551010352.5152020550</v>
+        <v>055155552510652566555525321515822555510555551255156558101576510612610551051510555510158105151051541156111387865775125551281055451565551010352.51520205510</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/International Ever Green_2025-11-24.xlsx
+++ b/DateBase/orders/International Ever Green_2025-11-24.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L111"/>
+  <dimension ref="A1:L121"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1370,9 +1370,92 @@
         <v>10</v>
       </c>
     </row>
+    <row r="112">
+      <c r="C112" t="str">
+        <v>532_灯苔_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F112" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="str">
+        <v>2</v>
+      </c>
+      <c r="C113" t="str">
+        <v>144_高原红_High Plateau Red_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F113" t="str">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="C114" t="str">
+        <v>268_猩红泡泡_spray red_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F114" t="str">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="C115" t="str">
+        <v>259_诺拉_Nora_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F115" t="str">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="C116" t="str">
+        <v>149_骄傲_Proud_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F116" t="str">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="C117" t="str">
+        <v>624_多丁白_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F117" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="C118" t="str">
+        <v>608_康乃馨笑颜_undefined_undefined_20stems</v>
+      </c>
+      <c r="F118" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="str">
+        <v>3</v>
+      </c>
+      <c r="C119" t="str">
+        <v>105_绣球莫奈蓝_Hydrangea Monet Blue_Hydrangea L._1stem</v>
+      </c>
+      <c r="F119" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="C120" t="str">
+        <v>106_绣球单瓣粉_Hydrangea Pink S_Hydrangea L._1stem</v>
+      </c>
+      <c r="F120" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="C121" t="str">
+        <v>100_绣球单瓣白_Hydrangea White S_Hydrangea L._1stem</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L111"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L121"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -1430,7 +1513,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>055155552510652566555525321515822555510555551255156558101576510612610551051510555510158105151051541156111387865775125551281055451565551010352.51520205510</v>
+        <v>055155552510652566555525321515822555510555551255156558101576510612610551051510555510158105151051541156111387865775125551281055451565551010352.5152020551051211414101520200</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/International Ever Green_2025-11-24.xlsx
+++ b/DateBase/orders/International Ever Green_2025-11-24.xlsx
@@ -1452,6 +1452,9 @@
       <c r="C121" t="str">
         <v>100_绣球单瓣白_Hydrangea White S_Hydrangea L._1stem</v>
       </c>
+      <c r="F121" t="str">
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -1513,7 +1516,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>055155552510652566555525321515822555510555551255156558101576510612610551051510555510158105151051541156111387865775125551281055451565551010352.5152020551051211414101520200</v>
+        <v>055155552510652566555525321515822555510555551255156558101576510612610551051510555510158105151051541156111387865775125551281055451565551010352.51520205510512114141015202020</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/International Ever Green_2025-11-24.xlsx
+++ b/DateBase/orders/International Ever Green_2025-11-24.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L121"/>
+  <dimension ref="A1:L130"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1456,9 +1456,84 @@
         <v>20</v>
       </c>
     </row>
+    <row r="122">
+      <c r="C122" t="str">
+        <v>80_冰清玉洁_undefined_Gerbera L._20stems</v>
+      </c>
+      <c r="F122" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="C123" t="str">
+        <v>77_珍爱mini_undefined_Gerbera L._20stems</v>
+      </c>
+      <c r="F123" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="C124" t="str">
+        <v>238_苏菲宝贝_undefined_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F124" t="str">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="C125" t="str">
+        <v>631_吸色康乃馨宝蓝_tinted blue_undefined_20stems</v>
+      </c>
+      <c r="F125" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="C126" t="str">
+        <v>631_吸色康乃馨宝蓝_tinted blue_undefined_20stems</v>
+      </c>
+      <c r="F126" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="str">
+        <v>4</v>
+      </c>
+      <c r="C127" t="str">
+        <v>669_大丽花 红_undefined_undefined_5stems</v>
+      </c>
+      <c r="F127" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="C128" t="str">
+        <v>420_松虫草QQ糖_scabiosa white pink_undefined_1bunch</v>
+      </c>
+      <c r="F128" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="C129" t="str">
+        <v>418_松虫草白_scabiosa white_undefined_1bunch</v>
+      </c>
+      <c r="F129" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="C130" t="str">
+        <v>648_洋牡丹河内_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F130" t="str">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L121"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L130"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -1516,7 +1591,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>055155552510652566555525321515822555510555551255156558101576510612610551051510555510158105151051541156111387865775125551281055451565551010352.51520205510512114141015202020</v>
+        <v>055155552510652566555525321515822555510555551255156558101576510612610551051510555510158105151051541156111387865775125551281055451565551010352.515202055105121141410152020201010810101015105</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/International Ever Green_2025-11-24.xlsx
+++ b/DateBase/orders/International Ever Green_2025-11-24.xlsx
@@ -1593,6 +1593,9 @@
       <c r="G2" t="str">
         <v>055155552510652566555525321515822555510555551255156558101576510612610551051510555510158105151051541156111387865775125551281055451565551010352.515202055105121141410152020201010810101015105</v>
       </c>
+      <c r="H2" t="str">
+        <v>CNY</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
